--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Tata Consultancy Services Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Tata Consultancy Services Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\OneDrive\Desktop\Kishan\Contractzy\WebScrapping\Tutorial\Financial_Data\MoneyControl\Companies\IT Services &amp; Consulting\Tata Consultancy Services Ltd\Pruned_Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE7B683-A425-45B0-948F-0E7274E0AFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -352,8 +358,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,13 +422,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -460,7 +474,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -494,6 +508,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -528,9 +543,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -703,14 +719,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,7 +794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -834,7 +856,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -842,7 +864,7 @@
         <v>48</v>
       </c>
       <c r="C3">
-        <v>16692.65</v>
+        <v>16692.650000000001</v>
       </c>
       <c r="D3">
         <v>5430.93</v>
@@ -896,7 +918,7 @@
         <v>24.36</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -910,7 +932,7 @@
         <v>5354.04</v>
       </c>
       <c r="E4">
-        <v>297.21</v>
+        <v>297.20999999999998</v>
       </c>
       <c r="F4">
         <v>5974.83</v>
@@ -937,10 +959,10 @@
         <v>1320.65</v>
       </c>
       <c r="N4">
-        <v>4628.52</v>
+        <v>4628.5200000000004</v>
       </c>
       <c r="O4">
-        <v>4628.52</v>
+        <v>4628.5200000000004</v>
       </c>
       <c r="P4">
         <v>195.87</v>
@@ -958,7 +980,7 @@
         <v>23.54</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1042,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1082,7 +1104,7 @@
         <v>25.48</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1090,7 +1112,7 @@
         <v>52</v>
       </c>
       <c r="C7">
-        <v>18936.35</v>
+        <v>18936.349999999999</v>
       </c>
       <c r="D7">
         <v>6440.38</v>
@@ -1144,7 +1166,7 @@
         <v>29.16</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1194,19 +1216,19 @@
         <v>195.87</v>
       </c>
       <c r="Q8">
-        <v>17.65</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="R8">
-        <v>17.65</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="S8">
-        <v>17.65</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="T8">
-        <v>17.65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>17.649999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1268,7 +1290,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1330,7 +1352,7 @@
         <v>29.04</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1392,7 +1414,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1454,7 +1476,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1516,7 +1538,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1578,7 +1600,7 @@
         <v>30.24</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1640,7 +1662,7 @@
         <v>30.88</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1702,7 +1724,7 @@
         <v>29.61</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1764,7 +1786,7 @@
         <v>34.11</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1826,7 +1848,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1888,7 +1910,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1950,7 +1972,7 @@
         <v>35.29</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2012,7 +2034,7 @@
         <v>18.64</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2062,19 +2084,19 @@
         <v>375</v>
       </c>
       <c r="Q22">
-        <v>19.92</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="R22">
-        <v>19.92</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="S22">
-        <v>19.92</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="T22">
-        <v>19.92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+        <v>19.920000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2136,7 +2158,7 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2198,7 +2220,7 @@
         <v>20.85</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2260,7 +2282,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2322,7 +2344,7 @@
         <v>23.02</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2384,7 +2406,7 @@
         <v>20.47</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2446,7 +2468,7 @@
         <v>21.92</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2502,13 +2524,13 @@
         <v>16.25</v>
       </c>
       <c r="S29">
-        <v>16.26</v>
+        <v>16.260000000000002</v>
       </c>
       <c r="T29">
         <v>16.25</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2558,19 +2580,19 @@
         <v>375</v>
       </c>
       <c r="Q30">
-        <v>19.85</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="R30">
-        <v>19.85</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="S30">
         <v>19.86</v>
       </c>
       <c r="T30">
-        <v>19.85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+        <v>19.850000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2632,7 +2654,7 @@
         <v>24.63</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2694,7 +2716,7 @@
         <v>22.08</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2756,7 +2778,7 @@
         <v>22.39</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2818,7 +2840,7 @@
         <v>27.45</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2880,7 +2902,7 @@
         <v>26.93</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2942,7 +2964,7 @@
         <v>26.48</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3004,7 +3026,7 @@
         <v>23.47</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3066,7 +3088,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3128,7 +3150,7 @@
         <v>29.13</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3190,7 +3212,7 @@
         <v>26.79</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3252,7 +3274,7 @@
         <v>28.65</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3314,7 +3336,7 @@
         <v>29.87</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3376,7 +3398,7 @@
         <v>29.45</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3438,7 +3460,7 @@
         <v>31.48</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3488,19 +3510,19 @@
         <v>362</v>
       </c>
       <c r="Q45">
-        <v>33.48</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="R45">
-        <v>33.48</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="S45">
-        <v>33.48</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="T45">
-        <v>33.48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>33.479999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3550,19 +3572,19 @@
         <v>362</v>
       </c>
       <c r="Q46">
-        <v>35.91</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="R46">
-        <v>35.91</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="S46">
-        <v>35.91</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="T46">
-        <v>35.91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>35.909999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
